--- a/data/latino/prob_pais.xlsx
+++ b/data/latino/prob_pais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\UMAD\Piso I\Piso-I-OP\data\latino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF72D64-2686-4395-AABE-6B329FB1BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C434A-70DA-41B1-A32D-4831ED91ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t xml:space="preserve"> Uruguay</t>
   </si>
   <si>
-    <t xml:space="preserve"> Venezuela_x000D_</t>
-  </si>
-  <si>
     <t>Bajos salarios</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>_x000D_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -656,139 +656,139 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="13.8" x14ac:dyDescent="0.3">
@@ -3313,13 +3313,13 @@
     </row>
     <row r="20" spans="1:46" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3">
         <v>4.3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3">
         <v>0.3</v>
@@ -3334,7 +3334,7 @@
         <v>4.7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -3349,19 +3349,19 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" s="3">
         <v>3.1</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R20" s="3">
         <v>4.3</v>
@@ -3370,46 +3370,46 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y20" s="3">
         <v>0.5</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH20" s="3">
         <v>1.8</v>
@@ -3418,25 +3418,25 @@
         <v>13.8</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN20" s="3">
         <v>11.6</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AQ20" s="3">
         <v>1.4</v>
